--- a/Lectures/Lecture 17/Expanse.xlsx
+++ b/Lectures/Lecture 17/Expanse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D42BE89-38C6-4412-8A1F-FA63D3FFE212}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268B2AAB-532E-4BD0-8614-44CC9D1AE29B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="930" windowWidth="14640" windowHeight="12320" activeTab="1" xr2:uid="{1C00D6E7-DB22-9C48-A1F3-760AD5C5C80E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{1C00D6E7-DB22-9C48-A1F3-760AD5C5C80E}"/>
   </bookViews>
   <sheets>
     <sheet name="Priority 1" sheetId="1" r:id="rId1"/>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5B376D-75FF-FE46-ACCE-7B534CA7A12F}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1196,7 +1196,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C15" s="11">
         <v>0</v>
@@ -1205,11 +1205,11 @@
         <v>0</v>
       </c>
       <c r="E15" s="11">
-        <v>493</v>
+        <v>0</v>
       </c>
       <c r="F15" s="26">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G15" s="16"/>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B16" s="5">
         <f>SUM(B12:B15)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" ref="C16:E16" si="3">SUM(C12:C15)</f>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="E16" s="6">
         <f t="shared" si="3"/>
-        <v>493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1260,7 +1260,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <f>0.4*B8-0.6*B16</f>
-        <v>-4.2</v>
+        <v>0</v>
       </c>
       <c r="B20" s="27">
         <v>0</v>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="D20" s="30">
         <f>A20+B20-C20</f>
-        <v>-4.2</v>
+        <v>0</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>5</v>
@@ -1335,7 +1335,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <f>0.4*E8-0.6*E16</f>
-        <v>-295.8</v>
+        <v>0</v>
       </c>
       <c r="B23" s="27">
         <v>0</v>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="D23" s="34">
         <f t="shared" si="4"/>
-        <v>-295.8</v>
+        <v>0</v>
       </c>
       <c r="E23" s="34" t="s">
         <v>5</v>
@@ -1360,7 +1360,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="28">
         <f>SUMPRODUCT(B4:E7,J4:M7)+SUMPRODUCT(B12:E15,J4:M7)</f>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="B24" s="27">
         <v>0</v>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="D24" s="36">
         <f>A24+B24-C24</f>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="E24" s="36" t="s">
         <v>5</v>
@@ -1385,7 +1385,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <f>B8+B16</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B25" s="27">
         <v>0</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="D25" s="30">
         <f>A25+B25-C25</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>5</v>
@@ -1460,7 +1460,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <f>E8+E16</f>
-        <v>493</v>
+        <v>0</v>
       </c>
       <c r="B28" s="27">
         <v>0</v>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="D28" s="34">
         <f t="shared" si="5"/>
-        <v>493</v>
+        <v>0</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>5</v>
@@ -1590,7 +1590,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D36" s="34">
         <f>F15</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E36" s="34" t="s">
         <v>5</v>
@@ -1627,7 +1627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B95071F-83FE-7843-ADC1-8CAFBC53DC52}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:E7"/>
     </sheetView>
   </sheetViews>
